--- a/cards.xlsx
+++ b/cards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Nome do Cartão</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Posição</t>
   </si>
   <si>
+    <t xml:space="preserve">Labels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarefa exemplo 1</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">2025-10-15</t>
   </si>
   <si>
+    <t xml:space="preserve">Activity: Meeting., Activity: Ticket.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarefa exemplo 2</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity: Ticket.</t>
   </si>
 </sst>
 </file>
@@ -59,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,6 +98,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +166,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -170,10 +193,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -182,9 +205,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -197,36 +221,48 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
